--- a/SBSJournalEntryImport/Test Files/Duplicates.xlsx
+++ b/SBSJournalEntryImport/Test Files/Duplicates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BSConsole\BS Console Source Code\C-Sharp\BSJobUtility\SBSJournalEntryImport\Test Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA70D18-B1E9-4D6F-8806-A2DFE61F7CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FB9592-1A3D-4041-99B0-F2B855861836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23295" yWindow="-7125" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24000" yWindow="-11265" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -301,7 +301,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -683,6 +689,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9033E9B-23AA-497D-BB28-7D4B14D0DA07}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1174,19 +1183,19 @@
       <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1251,19 +1260,19 @@
       <c r="T2" t="s">
         <v>15</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="6">
         <v>1</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="6">
         <v>2021</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1328,19 +1337,19 @@
       <c r="T3" t="s">
         <v>15</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="6">
         <v>1</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="6">
         <v>2021</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1405,19 +1414,19 @@
       <c r="T4" t="s">
         <v>15</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="6">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="6">
         <v>2021</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1482,19 +1491,19 @@
       <c r="T5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="6">
         <v>1</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="6">
         <v>2021</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1559,19 +1568,19 @@
       <c r="T6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="6">
         <v>1</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="6">
         <v>2021</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1636,19 +1645,19 @@
       <c r="T7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="6">
         <v>1</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="6">
         <v>2021</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1713,19 +1722,19 @@
       <c r="T8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="6">
         <v>1</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="6">
         <v>2021</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1790,19 +1799,19 @@
       <c r="T9" t="s">
         <v>15</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="6">
         <v>1</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="6">
         <v>2021</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
